--- a/Kmarket 테이블 명세서 v1.0.xlsx
+++ b/Kmarket 테이블 명세서 v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="884"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -1296,19 +1296,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:일반회원, 2:판매회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>누적 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:탈퇴 1:일반 2:실버 3:골드 5:판매자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1717,6 +1709,14 @@
   </si>
   <si>
     <t>김철학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:일반회원, 2:판매회원 5:최고관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:탈퇴 1:일반 2:실버 3:골드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2646,7 +2646,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2655,13 +2658,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2669,60 +2672,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2760,6 +2709,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2771,9 +2774,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2992,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3011,420 +3011,420 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="72" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
+      <c r="B2" s="96" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+        <v>372</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>381</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+    </row>
+    <row r="4" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B4" s="86" t="s">
         <v>379</v>
       </c>
-      <c r="G3" s="71" t="s">
-        <v>380</v>
-      </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-    </row>
-    <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71" t="s">
-        <v>463</v>
-      </c>
-      <c r="E4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="95" t="s">
+        <v>461</v>
+      </c>
+      <c r="E4" s="71"/>
       <c r="F4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="94">
         <v>44901</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="71" t="s">
-        <v>464</v>
-      </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
+      <c r="G5" s="95" t="s">
+        <v>462</v>
+      </c>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80" t="s">
+      <c r="F7" s="70"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="70"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84" t="s">
+      <c r="C8" s="90"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="63" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="63" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="66"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="63" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="66"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="63" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="66"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="63" t="s">
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="66"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="63" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="66"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="63" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="63" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="66"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="63" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="66"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="67"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="66"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+    </row>
+    <row r="20" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B20" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+    </row>
+    <row r="21" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B21" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="63" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="66"/>
-    </row>
-    <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="67" t="s">
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
+    </row>
+    <row r="22" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B22" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="63" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67" t="s">
         <v>390</v>
       </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="66"/>
-    </row>
-    <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="67" t="s">
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="68"/>
+    </row>
+    <row r="23" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B23" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="63" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66"/>
-    </row>
-    <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="63" t="s">
-        <v>392</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="66"/>
-    </row>
-    <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="63" t="s">
-        <v>393</v>
-      </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="66"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="67"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="66"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="68"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="67"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="66"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B26" s="100"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="99"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="2:9" ht="6" customHeight="1"/>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B30" s="92"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B31" s="92"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B32" s="92"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="91"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="74"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B33" s="92"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="91"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="74"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B34" s="92"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="74"/>
     </row>
     <row r="35" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="95"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1">
       <c r="B36" s="6" t="s">
@@ -4398,6 +4398,61 @@
     <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:I14"/>
@@ -4414,61 +4469,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4496,13 +4496,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G4" s="45"/>
       <c r="H4" s="46"/>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="17"/>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="24"/>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="24"/>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
@@ -4666,15 +4666,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="30"/>
@@ -5719,13 +5719,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="46"/>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="17"/>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="17"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="17"/>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="17"/>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="17"/>
@@ -5959,15 +5959,15 @@
       <c r="H19" s="62"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="30"/>
@@ -7020,13 +7020,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
-        <v>394</v>
-      </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="103" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -7054,13 +7054,13 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="57" t="s">
@@ -7073,85 +7073,85 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="43" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="46"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="43" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="17"/>
@@ -7239,15 +7239,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="30"/>
@@ -8282,13 +8282,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
-        <v>416</v>
-      </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="103" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -8316,13 +8316,13 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="43" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="57" t="s">
@@ -8335,98 +8335,98 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="43" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="46"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="43" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="43" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="44"/>
@@ -8435,16 +8435,16 @@
     </row>
     <row r="11" spans="2:8" ht="27.75" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="E11" s="105" t="s">
-        <v>440</v>
+        <v>406</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>438</v>
       </c>
       <c r="F11" s="57">
         <v>1</v>
@@ -8454,34 +8454,34 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="17"/>
@@ -8533,15 +8533,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="30"/>
@@ -9576,13 +9576,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
-        <v>441</v>
-      </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -9610,13 +9610,13 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="43" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="57" t="s">
@@ -9629,85 +9629,85 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="43" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="46"/>
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="43" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
       <c r="B7" s="43" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>449</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>451</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="17"/>
@@ -9725,7 +9725,7 @@
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="105"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="44"/>
       <c r="G11" s="39"/>
       <c r="H11" s="17"/>
@@ -9795,15 +9795,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="30"/>
@@ -10838,13 +10838,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="103" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -10872,13 +10872,13 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>455</v>
-      </c>
       <c r="D4" s="42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44" t="s">
@@ -10891,13 +10891,13 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>456</v>
-      </c>
       <c r="D5" s="42" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44" t="s">
@@ -10955,7 +10955,7 @@
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="105"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="44"/>
       <c r="G11" s="39"/>
       <c r="H11" s="17"/>
@@ -11025,15 +11025,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="30"/>
@@ -12068,13 +12068,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
-        <v>457</v>
-      </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="103" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -12102,13 +12102,13 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1">
       <c r="B4" s="43" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44" t="s">
@@ -12119,13 +12119,13 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1">
       <c r="B5" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>460</v>
-      </c>
       <c r="D5" s="42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44" t="s">
@@ -12136,13 +12136,13 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="43" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="44" t="s">
@@ -12191,7 +12191,7 @@
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="105"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="44"/>
       <c r="G11" s="39"/>
       <c r="H11" s="17"/>
@@ -12261,15 +12261,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="30"/>
@@ -13285,8 +13285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H999"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13304,11 +13304,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -13454,7 +13454,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>359</v>
+        <v>463</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>348</v>
@@ -13473,7 +13473,7 @@
         <v>51</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F11" s="15">
         <v>0</v>
@@ -13483,7 +13483,7 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>52</v>
@@ -13492,7 +13492,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>362</v>
+        <v>464</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -13836,15 +13836,15 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="71"/>
     </row>
     <row r="35" spans="2:8" s="38" customFormat="1" ht="21.75" customHeight="1">
       <c r="B35" s="30"/>
@@ -16788,12 +16788,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
       <c r="F1" s="50"/>
       <c r="G1" s="61"/>
       <c r="H1" s="50"/>
@@ -16846,7 +16846,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>314</v>
@@ -16860,10 +16860,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1">
       <c r="B6" s="43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>339</v>
@@ -16900,7 +16900,7 @@
         <v>91</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="44" t="s">
@@ -16992,15 +16992,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="30"/>
@@ -18031,12 +18031,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -18251,15 +18251,15 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="30"/>
@@ -19293,12 +19293,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
       <c r="F1" s="50"/>
       <c r="G1" s="50"/>
       <c r="H1" s="50"/>
@@ -19338,7 +19338,7 @@
         <v>186</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>348</v>
@@ -19376,15 +19376,15 @@
     </row>
     <row r="7" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="30" t="s">
@@ -19394,7 +19394,7 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H10" s="31"/>
     </row>
@@ -20512,7 +20512,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>348</v>
@@ -20531,7 +20531,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>348</v>
@@ -20567,15 +20567,15 @@
     </row>
     <row r="8" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="30" t="s">
@@ -22069,12 +22069,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -22385,7 +22385,7 @@
         <v>35</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>348</v>
@@ -22404,7 +22404,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F21" s="37" t="s">
         <v>348</v>
@@ -22423,7 +22423,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F22" s="37" t="s">
         <v>348</v>
@@ -22442,7 +22442,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F23" s="37" t="s">
         <v>348</v>
@@ -22683,15 +22683,15 @@
     </row>
     <row r="39" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="40" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="71"/>
     </row>
     <row r="41" spans="2:8" ht="21.75" customHeight="1">
       <c r="B41" s="30" t="s">
@@ -22713,21 +22713,21 @@
     </row>
     <row r="44" spans="2:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="B44" s="30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="31"/>
     </row>
     <row r="45" spans="2:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="B45" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="31"/>
     </row>
     <row r="46" spans="2:8" ht="21.75" customHeight="1">
       <c r="B46" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H46" s="31"/>
     </row>
@@ -23726,12 +23726,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -23958,15 +23958,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="30"/>
@@ -25050,7 +25050,7 @@
         <v>277</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H4" s="46"/>
     </row>
@@ -25277,7 +25277,7 @@
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>162</v>
@@ -25286,7 +25286,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F18" s="58" t="s">
         <v>348</v>
@@ -25341,15 +25341,15 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="30" t="s">
